--- a/DataSource/DataSource - Endoso - Carta de Danios.xlsx
+++ b/DataSource/DataSource - Endoso - Carta de Danios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D9AA15-BCE6-47AC-A340-E7A36CB5510A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F1CED-02C6-48FE-BA6E-8B87D8CDA4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Usuario</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Carta de Daños</t>
   </si>
   <si>
-    <t>04440024613</t>
-  </si>
-  <si>
     <t>Ambiente</t>
   </si>
   <si>
@@ -69,19 +66,7 @@
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>i-gestion-ssur-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://i-gestion-ssur-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>suraqa</t>
-  </si>
-  <si>
-    <t>04104002556</t>
-  </si>
-  <si>
-    <t>Prueba de endoso de carta de daños Oci2</t>
+    <t>04104013002</t>
   </si>
 </sst>
 </file>
@@ -411,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,10 +413,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -451,10 +436,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -463,42 +448,18 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{1AB1137A-8C87-4230-A614-E2F1006DCDE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
